--- a/tournaments/2022-mens-world-cup.xlsx
+++ b/tournaments/2022-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C207D254-C4F2-43DF-B6A6-7FC5A9DDA79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3FA24D-519F-43FB-A326-CFE3D170F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="6747" yWindow="6980" windowWidth="19200" windowHeight="10073" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>カタールのワールドカップ2022</t>
-  </si>
-  <si>
-    <t>2022 برنامه و کارت امتیاز</t>
   </si>
   <si>
     <t>قطر</t>
@@ -590,6 +587,9 @@
   </si>
   <si>
     <t>team</t>
+  </si>
+  <si>
+    <t>جام جهانی 2022 برنامه و کارت امتیاز</t>
   </si>
 </sst>
 </file>
@@ -1023,11 +1023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>132</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>138</v>
@@ -1124,10 +1124,10 @@
         <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
@@ -1153,10 +1153,10 @@
         <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
@@ -1185,7 +1185,7 @@
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
@@ -1211,10 +1211,10 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
         <v>151</v>
-      </c>
-      <c r="I6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
@@ -1240,10 +1240,10 @@
         <v>71</v>
       </c>
       <c r="H7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" t="s">
         <v>153</v>
-      </c>
-      <c r="I7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
@@ -1269,10 +1269,10 @@
         <v>72</v>
       </c>
       <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" t="s">
         <v>155</v>
-      </c>
-      <c r="I8" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
@@ -1298,10 +1298,10 @@
         <v>73</v>
       </c>
       <c r="H9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" t="s">
         <v>157</v>
-      </c>
-      <c r="I9" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
@@ -1327,10 +1327,10 @@
         <v>131</v>
       </c>
       <c r="H10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" t="s">
         <v>159</v>
-      </c>
-      <c r="I10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
@@ -1356,10 +1356,10 @@
         <v>75</v>
       </c>
       <c r="H11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
         <v>161</v>
-      </c>
-      <c r="I11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
@@ -1385,10 +1385,10 @@
         <v>76</v>
       </c>
       <c r="H12" t="s">
+        <v>162</v>
+      </c>
+      <c r="I12" t="s">
         <v>163</v>
-      </c>
-      <c r="I12" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1435,16 +1435,16 @@
         <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
@@ -2804,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2818,7 +2818,7 @@
         <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">

--- a/tournaments/2022-mens-world-cup.xlsx
+++ b/tournaments/2022-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3FA24D-519F-43FB-A326-CFE3D170F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D65013-94EC-44D2-9A3B-CE173F352922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6747" yWindow="6980" windowWidth="19200" windowHeight="10073" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2627" yWindow="2700" windowWidth="19200" windowHeight="10073" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -1023,11 +1023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -2804,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/tournaments/2022-mens-world-cup.xlsx
+++ b/tournaments/2022-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D65013-94EC-44D2-9A3B-CE173F352922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F652C7-7AF1-4956-A3E6-D7B02C51107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2627" yWindow="2700" windowWidth="19200" windowHeight="10073" activeTab="2" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="176">
   <si>
     <t>A1</t>
   </si>
@@ -227,12 +227,6 @@
   </si>
   <si>
     <t>match</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>away</t>
   </si>
   <si>
     <t>time</t>
@@ -590,6 +584,18 @@
   </si>
   <si>
     <t>جام جهانی 2022 برنامه و کارت امتیاز</t>
+  </si>
+  <si>
+    <t>home-seed</t>
+  </si>
+  <si>
+    <t>away-seed</t>
+  </si>
+  <si>
+    <t>home-team</t>
+  </si>
+  <si>
+    <t>away-team</t>
   </si>
 </sst>
 </file>
@@ -696,14 +702,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:I65" totalsRowShown="0">
-  <autoFilter ref="A1:I65" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:K65" totalsRowShown="0">
+  <autoFilter ref="A1:K65" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
-    <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home"/>
-    <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away"/>
+    <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
+    <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time"/>
     <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
     <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
@@ -1045,350 +1053,350 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
         <v>128</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1403,51 +1411,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.9375" style="2"/>
+    <col min="8" max="8" width="12.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.17578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.76171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1463,12 +1478,12 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1484,12 +1499,12 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1505,12 +1520,12 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1526,12 +1541,12 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1547,12 +1562,12 @@
       <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1568,12 +1583,12 @@
       <c r="E7">
         <v>7</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1589,12 +1604,12 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1610,12 +1625,12 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1631,12 +1646,12 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1652,12 +1667,12 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1673,12 +1688,12 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1694,12 +1709,12 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1715,12 +1730,12 @@
       <c r="E14">
         <v>8</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1736,12 +1751,12 @@
       <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1757,12 +1772,12 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1778,12 +1793,12 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1799,12 +1814,12 @@
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1820,12 +1835,12 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1841,12 +1856,12 @@
       <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1862,12 +1877,12 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1883,12 +1898,12 @@
       <c r="E22">
         <v>8</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1904,12 +1919,12 @@
       <c r="E23">
         <v>7</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1925,12 +1940,12 @@
       <c r="E24">
         <v>6</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1946,12 +1961,12 @@
       <c r="E25">
         <v>5</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1967,12 +1982,12 @@
       <c r="E26">
         <v>4</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1988,12 +2003,12 @@
       <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2009,12 +2024,12 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2030,12 +2045,12 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2051,12 +2066,12 @@
       <c r="E30">
         <v>8</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2072,12 +2087,12 @@
       <c r="E31">
         <v>7</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2093,12 +2108,12 @@
       <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2114,12 +2129,12 @@
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2135,12 +2150,12 @@
       <c r="E34">
         <v>4</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2156,12 +2171,12 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2177,12 +2192,12 @@
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2198,12 +2213,12 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2219,12 +2234,12 @@
       <c r="E38">
         <v>8</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2240,12 +2255,12 @@
       <c r="E39">
         <v>7</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2261,12 +2276,12 @@
       <c r="E40">
         <v>6</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2282,12 +2297,12 @@
       <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2303,12 +2318,12 @@
       <c r="E42">
         <v>4</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2324,12 +2339,12 @@
       <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2345,12 +2360,12 @@
       <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2366,12 +2381,12 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2387,12 +2402,12 @@
       <c r="E46">
         <v>8</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2408,12 +2423,12 @@
       <c r="E47">
         <v>7</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2429,12 +2444,12 @@
       <c r="E48">
         <v>6</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2450,12 +2465,12 @@
       <c r="E49">
         <v>5</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2471,12 +2486,12 @@
       <c r="E50">
         <v>2</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2492,12 +2507,12 @@
       <c r="E51">
         <v>4</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2513,12 +2528,12 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2534,12 +2549,12 @@
       <c r="E53">
         <v>3</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2555,12 +2570,12 @@
       <c r="E54">
         <v>8</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2576,12 +2591,12 @@
       <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2597,12 +2612,12 @@
       <c r="E56">
         <v>7</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2618,12 +2633,12 @@
       <c r="E57">
         <v>5</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2639,12 +2654,12 @@
       <c r="E58">
         <v>5</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2660,12 +2675,12 @@
       <c r="E59">
         <v>7</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2681,12 +2696,12 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2702,12 +2717,12 @@
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2723,12 +2738,12 @@
       <c r="E62">
         <v>5</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2744,20 +2759,20 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" s="1">
         <v>44912.625</v>
@@ -2765,12 +2780,12 @@
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2786,10 +2801,10 @@
       <c r="E65">
         <v>5</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2804,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827E4A0-E10B-4512-807E-A38B484A1AB9}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2815,10 +2830,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
@@ -2826,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -2834,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -2842,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -2850,7 +2865,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -2858,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -2866,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
@@ -2874,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
@@ -2882,7 +2897,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.5">
@@ -2890,7 +2905,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
@@ -2898,7 +2913,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
@@ -2906,7 +2921,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
@@ -2914,7 +2929,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.5">
@@ -2922,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
@@ -2930,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
@@ -2938,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -2946,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -2954,7 +2969,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -2962,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -2970,7 +2985,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -2978,7 +2993,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
@@ -2986,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
@@ -2994,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -3002,7 +3017,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -3010,7 +3025,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
@@ -3018,7 +3033,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -3026,7 +3041,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
@@ -3034,7 +3049,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
@@ -3042,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -3050,7 +3065,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
@@ -3058,7 +3073,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
@@ -3066,7 +3081,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
@@ -3074,7 +3089,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/tournaments/2022-mens-world-cup.xlsx
+++ b/tournaments/2022-mens-world-cup.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F652C7-7AF1-4956-A3E6-D7B02C51107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E022A6AB-35D3-4571-86FF-EAF810B22D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="10074" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
     <sheet name="Matches" sheetId="1" r:id="rId2"/>
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="201">
   <si>
     <t>A1</t>
   </si>
@@ -596,6 +597,81 @@
   </si>
   <si>
     <t>away-team</t>
+  </si>
+  <si>
+    <t>pale purple</t>
+  </si>
+  <si>
+    <t>#eecbef</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>pale orange</t>
+  </si>
+  <si>
+    <t>#fab077</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>pale teal</t>
+  </si>
+  <si>
+    <t>#c0e4df</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>pale blue</t>
+  </si>
+  <si>
+    <t>#b0d0ee</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>pale green</t>
+  </si>
+  <si>
+    <t>#c4e1b5</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>pale red</t>
+  </si>
+  <si>
+    <t>#f79d8f</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pale yellow</t>
+  </si>
+  <si>
+    <t>#fee289</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>pale cyan</t>
+  </si>
+  <si>
+    <t>#94d9f5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -646,10 +722,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,6 +802,25 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0AEBB99-51D0-46B6-ACD7-C4F2DC461A4C}" name="seed"/>
     <tableColumn id="3" xr3:uid="{DD8C8688-8EED-4B48-9C61-D766CD3EFBBB}" name="team"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DF7CDC91-A33A-4A72-9C3F-156105A85ED8}" name="groups" displayName="groups" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{4B86982E-77B7-4963-838F-4D594C24841B}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{D0E0E528-2BCB-4298-80EB-394686B036E7}" name="key"/>
+    <tableColumn id="2" xr3:uid="{3AD006A1-BF1D-4EE6-A45C-16FF2881DC52}" name="en"/>
+    <tableColumn id="3" xr3:uid="{26579E3F-BC15-4480-AD0D-BD2B2AE4B0AF}" name="es"/>
+    <tableColumn id="4" xr3:uid="{8BAB4BAD-FFFD-44D1-A4E3-0774FD0BAC15}" name="it"/>
+    <tableColumn id="5" xr3:uid="{3222D3A2-26F6-4B50-B423-C40487FE1EC4}" name="fr"/>
+    <tableColumn id="6" xr3:uid="{616BCBD8-3581-4F2F-9B1C-31ACE35035FE}" name="de"/>
+    <tableColumn id="7" xr3:uid="{9A002B4D-A4A3-4BEA-81E5-703F21AC9DC0}" name="nl"/>
+    <tableColumn id="8" xr3:uid="{B552B0B0-7C97-4F30-A9B3-F5664D12EED8}" name="ja"/>
+    <tableColumn id="9" xr3:uid="{1CE81ADD-EB4A-43B1-B848-8A2AFC0016C4}" name="fa"/>
+    <tableColumn id="10" xr3:uid="{7FD91AD2-7E21-4D2A-901D-ED242D54C2F0}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,119 +1145,119 @@
     <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>140</v>
       </c>
       <c r="H3" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1226,7 +1320,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
       <c r="B7" t="s">
@@ -1255,7 +1349,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>121</v>
       </c>
       <c r="B8" t="s">
@@ -1284,7 +1378,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>122</v>
       </c>
       <c r="B9" t="s">
@@ -1313,7 +1407,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>123</v>
       </c>
       <c r="B10" t="s">
@@ -1342,7 +1436,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
       <c r="B11" t="s">
@@ -1371,7 +1465,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>125</v>
       </c>
       <c r="B12" t="s">
@@ -1413,18 +1507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.9375" style="2"/>
-    <col min="8" max="8" width="12.5859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.76171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5859375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.17578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.5">
@@ -1443,22 +1536,22 @@
       <c r="E1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2824,15 +2917,12 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="2" max="2" width="8.9375" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2840,7 +2930,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2848,7 +2938,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2856,7 +2946,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2864,7 +2954,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2872,7 +2962,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2880,7 +2970,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2888,7 +2978,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2896,7 +2986,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2904,7 +2994,7 @@
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2912,7 +3002,7 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2920,7 +3010,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2928,7 +3018,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2936,7 +3026,7 @@
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2944,7 +3034,7 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2952,7 +3042,7 @@
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2960,7 +3050,7 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2968,7 +3058,7 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2976,7 +3066,7 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2984,7 +3074,7 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2992,7 +3082,7 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3000,7 +3090,7 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3008,7 +3098,7 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3016,7 +3106,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3024,7 +3114,7 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3032,7 +3122,7 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3040,7 +3130,7 @@
       <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3048,7 +3138,7 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3056,7 +3146,7 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3064,7 +3154,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3072,7 +3162,7 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3080,7 +3170,7 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3088,7 +3178,7 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3099,4 +3189,145 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E47EA-7E3E-4F13-99F7-06A362402BF7}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tournaments/2022-mens-world-cup.xlsx
+++ b/tournaments/2022-mens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruceo\Documents\code\soccer-tourney-poster\tournaments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/tournaments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E022A6AB-35D3-4571-86FF-EAF810B22D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDEA5A0-652C-794B-8C5F-4AACD1831B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2933" yWindow="2933" windowWidth="19200" windowHeight="10074" activeTab="3" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="19200" windowHeight="10080" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="203">
   <si>
     <t>A1</t>
   </si>
@@ -672,6 +672,12 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>Asia/Qatar</t>
   </si>
 </sst>
 </file>
@@ -759,8 +765,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I12" totalsRowShown="0">
-  <autoFilter ref="A1:I12" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I13" totalsRowShown="0">
+  <autoFilter ref="A1:I13" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -827,9 +833,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -867,7 +873,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -973,7 +979,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1115,7 +1121,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,29 +1129,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.05859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.41015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.76171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.05859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.46875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1261,235 +1267,243 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>118</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>67</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>119</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>68</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>68</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>148</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>69</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>69</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>150</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>121</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>152</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>154</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>123</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>126</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>127</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>128</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>129</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>129</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>156</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>73</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>158</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>160</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1511,16 +1525,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.46875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5859375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.17578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.76171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -1555,7 +1569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1576,7 +1590,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1597,7 +1611,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1618,7 +1632,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1639,7 +1653,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1660,7 +1674,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1681,7 +1695,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1702,7 +1716,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1723,7 +1737,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1744,7 +1758,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1765,7 +1779,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1786,7 +1800,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1807,7 +1821,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1828,7 +1842,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1849,7 +1863,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1870,7 +1884,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1891,7 +1905,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1912,7 +1926,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1933,7 +1947,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1954,7 +1968,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1975,7 +1989,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1996,7 +2010,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2017,7 +2031,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2038,7 +2052,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2059,7 +2073,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2080,7 +2094,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2101,7 +2115,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2122,7 +2136,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2143,7 +2157,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2164,7 +2178,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2185,7 +2199,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2206,7 +2220,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2227,7 +2241,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2248,7 +2262,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2269,7 +2283,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2290,7 +2304,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2311,7 +2325,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2332,7 +2346,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2353,7 +2367,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2374,7 +2388,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2395,7 +2409,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2416,7 +2430,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2437,7 +2451,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2458,7 +2472,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2479,7 +2493,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2500,7 +2514,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2521,7 +2535,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2542,7 +2556,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2563,7 +2577,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2584,7 +2598,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2605,7 +2619,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2626,7 +2640,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2647,7 +2661,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2668,7 +2682,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2689,7 +2703,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2710,7 +2724,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2731,7 +2745,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2752,7 +2766,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2773,7 +2787,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2794,7 +2808,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2815,7 +2829,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2836,7 +2850,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2857,7 +2871,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2878,7 +2892,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2916,9 +2930,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2926,7 +2940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2934,7 +2948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2956,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2950,7 +2964,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2958,7 +2972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +2980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2974,7 +2988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2982,7 +2996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2990,7 +3004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2998,7 +3012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3006,7 +3020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3036,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3038,7 +3052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3046,7 +3060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -3054,7 +3068,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3062,7 +3076,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3070,7 +3084,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3078,7 +3092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3094,7 +3108,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3102,7 +3116,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3110,7 +3124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3126,7 +3140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3134,7 +3148,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3150,7 +3164,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3158,7 +3172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3166,7 +3180,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3174,7 +3188,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -3195,16 +3209,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619E47EA-7E3E-4F13-99F7-06A362402BF7}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.1171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -3236,7 +3250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>196</v>
       </c>
@@ -3258,7 +3272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -3269,7 +3283,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -3280,7 +3294,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -3302,7 +3316,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>181</v>
       </c>
@@ -3313,7 +3327,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>178</v>
       </c>
